--- a/Convergence speed.xlsx
+++ b/Convergence speed.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B597DF-6193-4229-9018-F994C739C4A7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E42EE0B-8185-4F9D-9D48-ABD207B918BC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Contact frequency</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,38 @@
   </si>
   <si>
     <t>7800-8400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fixed contact time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random contact time within a range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of blockchain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block index that difference occurred</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lengh of longest blockchain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The last block contains transactions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,181 +444,714 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="3" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="5" max="5" width="24.25" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+    <col min="7" max="7" width="29.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>85948</v>
-      </c>
-      <c r="C2">
-        <v>99992</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>96128</v>
+      </c>
+      <c r="C3">
+        <v>99808</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>188</v>
+      </c>
+      <c r="F3">
+        <v>188</v>
+      </c>
+      <c r="G3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>87378</v>
-      </c>
-      <c r="C3">
-        <v>99992</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>100409</v>
+      </c>
+      <c r="C4">
+        <v>102802</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>151</v>
+      </c>
+      <c r="F4">
+        <v>150</v>
+      </c>
+      <c r="G4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>98625</v>
-      </c>
-      <c r="C4">
-        <v>101567</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>96128</v>
+      </c>
+      <c r="C5">
+        <v>103503</v>
+      </c>
+      <c r="D5">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>96317</v>
-      </c>
-      <c r="C5">
-        <v>105068</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>103</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>93655</v>
+      </c>
+      <c r="C6">
+        <v>102933</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>86</v>
+      </c>
+      <c r="F6">
+        <v>83</v>
+      </c>
+      <c r="G6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>114783</v>
-      </c>
-      <c r="C6">
-        <v>124917</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>133842</v>
+      </c>
+      <c r="C7">
+        <v>144934</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>99</v>
+      </c>
+      <c r="F7">
+        <v>95</v>
+      </c>
+      <c r="G7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>121261</v>
-      </c>
-      <c r="C7">
-        <v>147709</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>160075</v>
+      </c>
+      <c r="C8">
+        <v>174368</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>103</v>
+      </c>
+      <c r="F8">
+        <v>85</v>
+      </c>
+      <c r="G8">
+        <v>93</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
-        <v>150618</v>
-      </c>
-      <c r="C8">
-        <v>184328</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>127971</v>
+      </c>
+      <c r="C9">
+        <v>170703</v>
+      </c>
+      <c r="D9">
         <v>10</v>
       </c>
-      <c r="B9">
-        <v>158464</v>
-      </c>
-      <c r="C9">
-        <v>343368</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>95</v>
+      </c>
+      <c r="F9">
+        <v>79</v>
+      </c>
+      <c r="G9">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>211275</v>
+      </c>
+      <c r="C10">
+        <v>243676</v>
+      </c>
+      <c r="D10">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>128</v>
+      </c>
+      <c r="F10">
+        <v>113</v>
+      </c>
+      <c r="G10">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
-        <v>196311</v>
-      </c>
-      <c r="C10">
-        <v>290595</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>175289</v>
+      </c>
+      <c r="C11">
+        <v>234865</v>
+      </c>
+      <c r="D11">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>112</v>
+      </c>
+      <c r="F11">
+        <v>91</v>
+      </c>
+      <c r="G11">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
-        <v>243194</v>
-      </c>
-      <c r="C11">
-        <v>325901</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B12">
+        <v>195701</v>
+      </c>
+      <c r="C12">
+        <v>308600</v>
+      </c>
+      <c r="D12">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>143</v>
+      </c>
+      <c r="F12">
+        <v>93</v>
+      </c>
+      <c r="G12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>291691</v>
       </c>
-      <c r="C12">
-        <v>340978</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="C13">
+        <v>352905</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>163</v>
+      </c>
+      <c r="F13">
+        <v>136</v>
+      </c>
+      <c r="G13">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
-        <v>304864</v>
-      </c>
-      <c r="C13">
-        <v>504712</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B14">
+        <v>265528</v>
+      </c>
+      <c r="C14">
+        <v>385001</v>
+      </c>
+      <c r="D14">
         <v>15</v>
       </c>
-      <c r="B14">
-        <v>541801</v>
-      </c>
-      <c r="C14">
-        <v>661360</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>161</v>
+      </c>
+      <c r="F14">
+        <v>123</v>
+      </c>
+      <c r="G14">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>330794</v>
+      </c>
+      <c r="C15">
+        <v>701637</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>282</v>
+      </c>
+      <c r="F15">
+        <v>256</v>
+      </c>
+      <c r="G15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
-        <v>486793</v>
-      </c>
-      <c r="C15">
-        <v>960019</v>
+      <c r="B16">
+        <v>415103</v>
+      </c>
+      <c r="C16">
+        <v>612634</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>228</v>
+      </c>
+      <c r="F16">
+        <v>171</v>
+      </c>
+      <c r="G16">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>96128</v>
+      </c>
+      <c r="C20">
+        <v>99808</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>188</v>
+      </c>
+      <c r="F20">
+        <v>188</v>
+      </c>
+      <c r="G20">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>96128</v>
+      </c>
+      <c r="C21">
+        <v>99731</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>188</v>
+      </c>
+      <c r="F21">
+        <v>188</v>
+      </c>
+      <c r="G21">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>96128</v>
+      </c>
+      <c r="C22">
+        <v>99731</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>140</v>
+      </c>
+      <c r="F22">
+        <v>139</v>
+      </c>
+      <c r="G22">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>88372</v>
+      </c>
+      <c r="C23">
+        <v>99808</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>123</v>
+      </c>
+      <c r="F23">
+        <v>123</v>
+      </c>
+      <c r="G23">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>88372</v>
+      </c>
+      <c r="C24">
+        <v>99100</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>110</v>
+      </c>
+      <c r="F24">
+        <v>109</v>
+      </c>
+      <c r="G24">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>97267</v>
+      </c>
+      <c r="C25">
+        <v>103503</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>108</v>
+      </c>
+      <c r="F25">
+        <v>107</v>
+      </c>
+      <c r="G25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>92553</v>
+      </c>
+      <c r="C26">
+        <v>99100</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>95</v>
+      </c>
+      <c r="F26">
+        <v>92</v>
+      </c>
+      <c r="G26">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>91836</v>
+      </c>
+      <c r="C27">
+        <v>99100</v>
+      </c>
+      <c r="D27">
+        <v>11</v>
+      </c>
+      <c r="E27">
+        <v>83</v>
+      </c>
+      <c r="F27">
+        <v>82</v>
+      </c>
+      <c r="G27">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <v>97267</v>
+      </c>
+      <c r="C28">
+        <v>99808</v>
+      </c>
+      <c r="D28">
+        <v>9</v>
+      </c>
+      <c r="E28">
+        <v>83</v>
+      </c>
+      <c r="F28">
+        <v>83</v>
+      </c>
+      <c r="G28">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29">
+        <v>96128</v>
+      </c>
+      <c r="C29">
+        <v>99100</v>
+      </c>
+      <c r="D29">
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <v>76</v>
+      </c>
+      <c r="F29">
+        <v>75</v>
+      </c>
+      <c r="G29">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30">
+        <v>112258</v>
+      </c>
+      <c r="C30">
+        <v>112258</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>86</v>
+      </c>
+      <c r="F30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31">
+        <v>115312</v>
+      </c>
+      <c r="C31">
+        <v>122667</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>89</v>
+      </c>
+      <c r="F31">
+        <v>89</v>
+      </c>
+      <c r="G31">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <v>103394</v>
+      </c>
+      <c r="C32">
+        <v>108190</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>76</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33">
+        <v>117857</v>
+      </c>
+      <c r="C33">
+        <v>125572</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>84</v>
+      </c>
+      <c r="F33">
+        <v>81</v>
+      </c>
+      <c r="G33">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
